--- a/MyPAS/20161229/MyPAS_ProbableDuplicates.xlsx
+++ b/MyPAS/20161229/MyPAS_ProbableDuplicates.xlsx
@@ -16,11 +16,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="dd-mmm-yyyy"/>
-  </numFmts>
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,7 +25,6 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -38,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -46,19 +42,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="Date" xfId="1" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -433,7 +425,7 @@
     <col width="33" customWidth="1" min="1" max="1"/>
     <col width="27" customWidth="1" min="2" max="2"/>
     <col width="26" customWidth="1" min="3" max="3"/>
-    <col width="23" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
     <col width="3" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
@@ -487,9 +479,7 @@
           <t>JANIE</t>
         </is>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>29568</v>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>F</t>
